--- a/Analytics/SP1/TGMXcorners_sp1.xlsx
+++ b/Analytics/SP1/TGMXcorners_sp1.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Betis</t>
+    <t>Espanol</t>
   </si>
   <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Celta</t>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 38</t>
+    <t>SUM("TTGMXcorners") / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>38725.0</v>
+        <v>14527.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>31787.0</v>
+        <v>11377.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>31627.0</v>
+        <v>10892.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>30342.0</v>
+        <v>10683.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>30272.0</v>
+        <v>10313.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>27940.0</v>
+        <v>9080.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>27927.0</v>
+        <v>7781.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>26674.0</v>
+        <v>7749.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>25807.0</v>
+        <v>7489.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>23856.0</v>
+        <v>7261.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>22453.0</v>
+        <v>6992.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>22049.0</v>
+        <v>6624.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>21101.0</v>
+        <v>6449.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>20316.0</v>
+        <v>6401.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>19766.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>15203.0</v>
+        <v>6185.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>14317.0</v>
+        <v>5936.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>14063.0</v>
+        <v>5486.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>13729.0</v>
+        <v>4437.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>11177.0</v>
+        <v>3410.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>33907.0</v>
+        <v>17078.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>32838.0</v>
+        <v>13070.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>30460.0</v>
+        <v>10457.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>29124.0</v>
+        <v>9867.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>27651.0</v>
+        <v>9646.0</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>26859.0</v>
+        <v>9226.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>24742.0</v>
+        <v>8912.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>24166.0</v>
+        <v>8844.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>23395.0</v>
+        <v>8112.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>23232.0</v>
+        <v>7493.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>22667.0</v>
+        <v>7329.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>22350.0</v>
+        <v>6594.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>21426.0</v>
+        <v>6178.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>20695.0</v>
+        <v>6076.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>18784.0</v>
+        <v>5814.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>18648.0</v>
+        <v>5414.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>18128.0</v>
+        <v>4943.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>17459.0</v>
+        <v>4568.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>16818.0</v>
+        <v>3196.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>15782.0</v>
+        <v>2555.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>69185.0</v>
+        <v>28455.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1820.657894736842</v>
+        <v>2371.25</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>60778.0</v>
+        <v>20851.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1599.421052631579</v>
+        <v>1737.5833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>60751.0</v>
+        <v>20341.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1598.7105263157894</v>
+        <v>1695.0833333333333</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>55182.0</v>
+        <v>18425.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1452.157894736842</v>
+        <v>1535.4166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>53458.0</v>
+        <v>16858.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1406.7894736842106</v>
+        <v>1404.8333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>51768.0</v>
+        <v>15835.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1362.3157894736842</v>
+        <v>1319.5833333333333</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>49341.0</v>
+        <v>15831.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1298.4473684210527</v>
+        <v>1319.25</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>49110.0</v>
+        <v>15675.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1292.3684210526317</v>
+        <v>1306.25</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>48920.0</v>
+        <v>15353.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1287.3684210526317</v>
+        <v>1279.4166666666667</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>48598.0</v>
+        <v>15212.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.8947368421052</v>
+        <v>1267.6666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>47960.0</v>
+        <v>14818.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1262.1052631578948</v>
+        <v>1234.8333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
-        <v>43709.0</v>
+        <v>14780.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1150.2368421052631</v>
+        <v>1231.6666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>40833.0</v>
+        <v>14343.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1074.5526315789473</v>
+        <v>1195.25</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>39912.0</v>
+        <v>14117.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1050.3157894736842</v>
+        <v>1176.4166666666667</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>37895.0</v>
+        <v>13879.0</v>
       </c>
       <c r="D16" t="n">
-        <v>997.2368421052631</v>
+        <v>1156.5833333333333</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>37894.0</v>
+        <v>13068.0</v>
       </c>
       <c r="D17" t="n">
-        <v>997.2105263157895</v>
+        <v>1089.0</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>37134.0</v>
+        <v>11829.0</v>
       </c>
       <c r="D18" t="n">
-        <v>977.2105263157895</v>
+        <v>985.75</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>36667.0</v>
+        <v>11635.0</v>
       </c>
       <c r="D19" t="n">
-        <v>964.921052631579</v>
+        <v>969.5833333333334</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>34758.0</v>
+        <v>10615.0</v>
       </c>
       <c r="D20" t="n">
-        <v>914.6842105263158</v>
+        <v>884.5833333333334</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>34409.0</v>
+        <v>8824.0</v>
       </c>
       <c r="D21" t="n">
-        <v>905.5</v>
+        <v>735.3333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/TGMXcorners_sp1.xlsx
+++ b/Analytics/SP1/TGMXcorners_sp1.xlsx
@@ -85,58 +85,58 @@
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Osasuna</t>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
   </si>
   <si>
     <t>Sociedad</t>
   </si>
   <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Girona</t>
   </si>
   <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Alaves</t>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Celta</t>
   </si>
   <si>
-    <t>Las Palmas</t>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Espanol</t>
   </si>
   <si>
     <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
   </si>
   <si>
     <t>Getafe</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>14527.0</v>
+        <v>17955.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>11377.0</v>
+        <v>14884.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>10892.0</v>
+        <v>14396.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>10683.0</v>
+        <v>13420.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>10313.0</v>
+        <v>12656.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>9080.0</v>
+        <v>12484.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>7781.0</v>
+        <v>11551.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>7749.0</v>
+        <v>11292.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>7489.0</v>
+        <v>10501.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>7261.0</v>
+        <v>10320.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>6992.0</v>
+        <v>9678.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>6624.0</v>
+        <v>9639.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>6449.0</v>
+        <v>9476.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>6401.0</v>
+        <v>9322.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>6300.0</v>
+        <v>9312.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>6185.0</v>
+        <v>8609.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>5936.0</v>
+        <v>8598.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>5486.0</v>
+        <v>8026.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>4437.0</v>
+        <v>7898.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3410.0</v>
+        <v>4467.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>17078.0</v>
+        <v>24209.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>13070.0</v>
+        <v>15280.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>10457.0</v>
+        <v>14559.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>9867.0</v>
+        <v>13141.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>9646.0</v>
+        <v>12243.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>9226.0</v>
+        <v>12140.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>8912.0</v>
+        <v>11972.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>8844.0</v>
+        <v>11540.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>8112.0</v>
+        <v>10801.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>7493.0</v>
+        <v>10737.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>7329.0</v>
+        <v>10096.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>6594.0</v>
+        <v>9326.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>6178.0</v>
+        <v>9232.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>6076.0</v>
+        <v>8673.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5814.0</v>
+        <v>8188.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5414.0</v>
+        <v>8176.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>4943.0</v>
+        <v>7570.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>4568.0</v>
+        <v>6717.0</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>3196.0</v>
+        <v>5024.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>2555.0</v>
+        <v>4860.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>28455.0</v>
+        <v>36865.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2371.25</v>
+        <v>3072.0833333333335</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>20851.0</v>
+        <v>29495.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1737.5833333333333</v>
+        <v>2457.9166666666665</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>20341.0</v>
+        <v>26110.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1695.0833333333333</v>
+        <v>2175.8333333333335</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>18425.0</v>
+        <v>24980.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1535.4166666666667</v>
+        <v>2081.6666666666665</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>16858.0</v>
+        <v>24919.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1404.8333333333333</v>
+        <v>2076.5833333333335</v>
       </c>
     </row>
     <row r="7">
@@ -773,10 +773,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>15835.0</v>
+        <v>23069.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1319.5833333333333</v>
+        <v>1922.4166666666667</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>15831.0</v>
+        <v>22563.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1319.25</v>
+        <v>1880.25</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>15675.0</v>
+        <v>21739.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1306.25</v>
+        <v>1811.5833333333333</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>15353.0</v>
+        <v>21716.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1279.4166666666667</v>
+        <v>1809.6666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>15212.0</v>
+        <v>20581.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1267.6666666666667</v>
+        <v>1715.0833333333333</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>14818.0</v>
+        <v>20415.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1234.8333333333333</v>
+        <v>1701.25</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>14780.0</v>
+        <v>20038.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1231.6666666666667</v>
+        <v>1669.8333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>14343.0</v>
+        <v>18827.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1195.25</v>
+        <v>1568.9166666666667</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>14117.0</v>
+        <v>18638.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1176.4166666666667</v>
+        <v>1553.1666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -899,10 +899,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>13879.0</v>
+        <v>18444.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1156.5833333333333</v>
+        <v>1537.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>13068.0</v>
+        <v>18071.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1089.0</v>
+        <v>1505.9166666666667</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>11829.0</v>
+        <v>17664.0</v>
       </c>
       <c r="D18" t="n">
-        <v>985.75</v>
+        <v>1472.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>11635.0</v>
+        <v>17498.0</v>
       </c>
       <c r="D19" t="n">
-        <v>969.5833333333334</v>
+        <v>1458.1666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>10615.0</v>
+        <v>16152.0</v>
       </c>
       <c r="D20" t="n">
-        <v>884.5833333333334</v>
+        <v>1346.0</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>8824.0</v>
+        <v>11184.0</v>
       </c>
       <c r="D21" t="n">
-        <v>735.3333333333334</v>
+        <v>932.0</v>
       </c>
     </row>
   </sheetData>
